--- a/Group 13 Tesla Case.xlsx
+++ b/Group 13 Tesla Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shriyapattapu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E96277D1-9D62-9B43-9CE4-36D49210A02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C524D999-282B-B848-BC4D-AC9EA4807611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="760" windowWidth="30240" windowHeight="17740" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="2" r:id="rId1"/>
@@ -767,105 +767,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>522941</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>149412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>834715</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>62255</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D9395F-5611-C649-B743-79C4A2C0260D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6200588" y="9375588"/>
-          <a:ext cx="4047068" cy="846667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>I AM NOTY</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> SURE IF I DID EVERYTHING CORRECTLY I DID IT QUICKLY TO START THE WRITE-UP. I WILL EDIT IF CORRECTIONS GET MADE :)</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1189,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D4EAF2-126E-1742-8C49-08F05BD1AFF9}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -2305,7 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A3E5EE-6105-F941-A16B-FF8853AA84C0}">
   <dimension ref="A1:BG74"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="BF40" sqref="BF40"/>
     </sheetView>
   </sheetViews>
@@ -7488,7 +7389,6 @@
     <mergeCell ref="AK1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7496,7 +7396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D355C1-57B1-F14B-89BA-8199BFF24332}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="137" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -7946,7 +7846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43259A0-2939-4C34-8F05-81BD280EB45B}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
